--- a/scene/高压记录.xlsx
+++ b/scene/高压记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chezexin/code/python/BpAnalysis/scene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172CF61-972A-E54D-BD20-C0F7239C637D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CA2AE-C8C1-4246-B9CE-45BE12FE1E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1320" windowWidth="16400" windowHeight="16940" xr2:uid="{B8AF54EE-B4F2-1F48-9EF0-8569EA3DECBC}"/>
+    <workbookView xWindow="20140" yWindow="3200" windowWidth="16400" windowHeight="16940" xr2:uid="{B8AF54EE-B4F2-1F48-9EF0-8569EA3DECBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B399EBF-B053-9041-ACAF-2C191C78F096}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="114" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1260,6 +1260,229 @@
         <v>10</v>
       </c>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>137</v>
+      </c>
+      <c r="E40" s="1">
+        <v>86</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>135</v>
+      </c>
+      <c r="E41" s="1">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1">
+        <v>82</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>81</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>138</v>
+      </c>
+      <c r="E44" s="1">
+        <v>83</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1">
+        <v>75</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1">
+        <v>63</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>85</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>115</v>
+      </c>
+      <c r="E48" s="1">
+        <v>65</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>115</v>
+      </c>
+      <c r="E49" s="1">
+        <v>75</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scene/高压记录.xlsx
+++ b/scene/高压记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chezexin/code/python/BpAnalysis/scene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CA2AE-C8C1-4246-B9CE-45BE12FE1E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477BC71-C517-8B4F-89F3-9E52B26D58C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20140" yWindow="3200" windowWidth="16400" windowHeight="16940" xr2:uid="{B8AF54EE-B4F2-1F48-9EF0-8569EA3DECBC}"/>
+    <workbookView xWindow="2140" yWindow="1000" windowWidth="16400" windowHeight="16940" xr2:uid="{B8AF54EE-B4F2-1F48-9EF0-8569EA3DECBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>中压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,11 +145,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B399EBF-B053-9041-ACAF-2C191C78F096}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +492,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>31</v>
       </c>
@@ -493,14 +518,18 @@
       <c r="E2" s="1">
         <v>75</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -516,15 +545,17 @@
       <c r="E3" s="1">
         <v>62</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="3">
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>33</v>
       </c>
@@ -532,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>114</v>
@@ -540,15 +571,18 @@
       <c r="E4" s="1">
         <v>73</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="3">
+        <v>114</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>34</v>
       </c>
@@ -556,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>114</v>
@@ -564,12 +598,17 @@
       <c r="E5" s="1">
         <v>77</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="3">
+        <v>114</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -585,12 +624,17 @@
       <c r="E6" s="1">
         <v>87</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>126</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>36</v>
       </c>
@@ -606,12 +650,17 @@
       <c r="E7" s="1">
         <v>81</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>40</v>
       </c>
@@ -627,12 +676,17 @@
       <c r="E8" s="1">
         <v>69</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="3">
+        <v>116</v>
+      </c>
+      <c r="G8">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -648,11 +702,17 @@
       <c r="E9" s="1">
         <v>68</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="2">
+        <v>121</v>
+      </c>
+      <c r="G9">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -668,11 +728,18 @@
       <c r="E10" s="1">
         <v>78</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>43</v>
       </c>
@@ -688,11 +755,18 @@
       <c r="E11" s="1">
         <v>68</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="2">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -708,11 +782,18 @@
       <c r="E12" s="1">
         <v>72</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2">
+        <v>119</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -728,11 +809,18 @@
       <c r="E13" s="1">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="2">
+        <v>117</v>
+      </c>
+      <c r="G13">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>51</v>
       </c>
@@ -748,11 +836,18 @@
       <c r="E14" s="1">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2">
+        <v>121</v>
+      </c>
+      <c r="G14">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>52</v>
       </c>
@@ -768,11 +863,18 @@
       <c r="E15" s="1">
         <v>63</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="2">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>53</v>
       </c>
@@ -788,11 +890,18 @@
       <c r="E16" s="1">
         <v>64</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="2">
+        <v>113</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -808,11 +917,18 @@
       <c r="E17" s="1">
         <v>64</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="2">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>67</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>55</v>
       </c>
@@ -828,11 +944,18 @@
       <c r="E18" s="1">
         <v>75</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="2">
+        <v>117</v>
+      </c>
+      <c r="G18">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>56</v>
       </c>
@@ -848,11 +971,18 @@
       <c r="E19" s="1">
         <v>67</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="2">
+        <v>124</v>
+      </c>
+      <c r="G19">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>57</v>
       </c>
@@ -868,11 +998,18 @@
       <c r="E20" s="1">
         <v>67</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="2">
+        <v>118</v>
+      </c>
+      <c r="G20">
+        <v>73</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>58</v>
       </c>
@@ -888,11 +1025,18 @@
       <c r="E21" s="1">
         <v>67</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="2">
+        <v>117</v>
+      </c>
+      <c r="G21">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>59</v>
       </c>
@@ -908,11 +1052,18 @@
       <c r="E22" s="1">
         <v>67</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="2">
+        <v>112</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -928,11 +1079,18 @@
       <c r="E23" s="1">
         <v>76</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="2">
+        <v>110</v>
+      </c>
+      <c r="G23">
+        <v>81</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -948,11 +1106,18 @@
       <c r="E24" s="1">
         <v>75</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="2">
+        <v>118</v>
+      </c>
+      <c r="G24">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -968,11 +1133,18 @@
       <c r="E25" s="1">
         <v>67</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="2">
+        <v>121</v>
+      </c>
+      <c r="G25">
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>63</v>
       </c>
@@ -988,11 +1160,18 @@
       <c r="E26" s="1">
         <v>64</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="2">
+        <v>102</v>
+      </c>
+      <c r="G26">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>64</v>
       </c>
@@ -1008,11 +1187,18 @@
       <c r="E27" s="1">
         <v>66</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="2">
+        <v>111</v>
+      </c>
+      <c r="G27">
+        <v>69</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>65</v>
       </c>
@@ -1028,11 +1214,18 @@
       <c r="E28" s="1">
         <v>68</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28" s="2">
+        <v>109</v>
+      </c>
+      <c r="G28">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>66</v>
       </c>
@@ -1048,11 +1241,18 @@
       <c r="E29" s="1">
         <v>82</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="2">
+        <v>130</v>
+      </c>
+      <c r="G29">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>67</v>
       </c>
@@ -1068,11 +1268,18 @@
       <c r="E30" s="1">
         <v>82</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="2">
+        <v>125</v>
+      </c>
+      <c r="G30">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>68</v>
       </c>
@@ -1088,11 +1295,18 @@
       <c r="E31" s="1">
         <v>92</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="2">
+        <v>138</v>
+      </c>
+      <c r="G31">
+        <v>88</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>69</v>
       </c>
@@ -1108,12 +1322,18 @@
       <c r="E32" s="1">
         <v>77</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="3">
+        <v>115</v>
+      </c>
+      <c r="G32">
+        <v>76</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>70</v>
       </c>
@@ -1129,12 +1349,18 @@
       <c r="E33" s="1">
         <v>79</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="F33" s="3">
+        <v>115</v>
+      </c>
+      <c r="G33">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>71</v>
       </c>
@@ -1150,12 +1376,18 @@
       <c r="E34" s="1">
         <v>71</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="F34" s="3">
+        <v>110</v>
+      </c>
+      <c r="G34">
+        <v>72</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>72</v>
       </c>
@@ -1171,12 +1403,18 @@
       <c r="E35" s="1">
         <v>78</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="3">
+        <v>127</v>
+      </c>
+      <c r="G35">
+        <v>74</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>73</v>
       </c>
@@ -1192,12 +1430,18 @@
       <c r="E36" s="1">
         <v>71</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="3">
+        <v>115</v>
+      </c>
+      <c r="G36">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>74</v>
       </c>
@@ -1213,12 +1457,18 @@
       <c r="E37" s="1">
         <v>68</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
+      <c r="F37" s="3">
+        <v>116</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>75</v>
       </c>
@@ -1234,12 +1484,18 @@
       <c r="E38" s="1">
         <v>62</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="F38" s="3">
+        <v>106</v>
+      </c>
+      <c r="G38">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>76</v>
       </c>
@@ -1255,12 +1511,18 @@
       <c r="E39" s="1">
         <v>62</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="F39" s="3">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>77</v>
       </c>
@@ -1276,11 +1538,18 @@
       <c r="E40" s="1">
         <v>86</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="2">
+        <v>131</v>
+      </c>
+      <c r="G40">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -1296,13 +1565,20 @@
       <c r="E41" s="1">
         <v>96</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="2">
+        <v>132</v>
+      </c>
+      <c r="G41">
+        <v>83</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
@@ -1311,98 +1587,128 @@
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="1">
-        <v>74</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="F42" s="2">
+        <v>113</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1">
+        <v>83</v>
+      </c>
+      <c r="F43" s="2">
+        <v>118</v>
+      </c>
+      <c r="G43">
+        <v>83</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>82</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1">
+        <v>75</v>
+      </c>
+      <c r="F44" s="2">
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>75</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
         <v>83</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>82</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1">
+        <v>66</v>
+      </c>
+      <c r="F45" s="2">
+        <v>119</v>
+      </c>
+      <c r="G45">
+        <v>67</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1">
+        <v>63</v>
+      </c>
+      <c r="F46" s="2">
+        <v>106</v>
+      </c>
+      <c r="G46">
         <v>75</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>83</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>116</v>
-      </c>
-      <c r="E46" s="1">
-        <v>66</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -1411,38 +1717,50 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1">
-        <v>63</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="F47" s="2">
+        <v>118</v>
+      </c>
+      <c r="G47">
+        <v>64</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>115</v>
       </c>
       <c r="E48" s="1">
-        <v>65</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="F48" s="2">
+        <v>113</v>
+      </c>
+      <c r="G48">
+        <v>75</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -1451,37 +1769,23 @@
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2">
+        <v>110</v>
+      </c>
+      <c r="G49">
         <v>75</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>87</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>110</v>
-      </c>
-      <c r="E50" s="1">
-        <v>71</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
